--- a/GrocceryApplicationProject/src/test/resources/TestData.xlsx
+++ b/GrocceryApplicationProject/src/test/resources/TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="4710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="4710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -26,6 +27,9 @@
   </si>
   <si>
     <t>ADMaN</t>
+  </si>
+  <si>
+    <t>louis</t>
   </si>
 </sst>
 </file>
@@ -369,7 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -410,4 +414,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GrocceryApplicationProject/src/test/resources/TestData.xlsx
+++ b/GrocceryApplicationProject/src/test/resources/TestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="4710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="4710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
+    <sheet name="NewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
@@ -29,7 +30,10 @@
     <t>ADMaN</t>
   </si>
   <si>
-    <t>louis</t>
+    <t>jude</t>
+  </si>
+  <si>
+    <t>New Product Released</t>
   </si>
 </sst>
 </file>
@@ -420,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,4 +441,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>